--- a/results/pvalue_SIDER_all_target_AUROC.xlsx
+++ b/results/pvalue_SIDER_all_target_AUROC.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.776</t>
+          <t>11.549</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.144</t>
+          <t>13.335</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.223</t>
+          <t>12.019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.388</t>
+          <t>11.327</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>45.735</t>
+          <t>46.353</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>51.337</t>
+          <t>51.28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.155</t>
+          <t>45.855</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.974</t>
+          <t>37.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16.173</t>
+          <t>17.521</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
